--- a/Kinematics/кин модель.drawio.xlsx
+++ b/Kinematics/кин модель.drawio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>сочленение</t>
   </si>
@@ -33,12 +33,6 @@
     <t>teta1</t>
   </si>
   <si>
-    <t>teta3</t>
-  </si>
-  <si>
-    <t>teta4</t>
-  </si>
-  <si>
     <t>teta5</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>θ</t>
   </si>
   <si>
-    <t>П/2</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -81,16 +72,43 @@
     <t>60 мм</t>
   </si>
   <si>
-    <t>30 мм</t>
-  </si>
-  <si>
-    <t>20 мм</t>
-  </si>
-  <si>
     <t>75+290 мм</t>
   </si>
   <si>
     <t>290 мм</t>
+  </si>
+  <si>
+    <t>направление х определяется кратчайшим поворотом z текущ к предыдущ по правой руке</t>
+  </si>
+  <si>
+    <t>teta4+180</t>
+  </si>
+  <si>
+    <t>teta3+180</t>
+  </si>
+  <si>
+    <t>25 мм</t>
+  </si>
+  <si>
+    <t>-25 мм</t>
+  </si>
+  <si>
+    <t>a  alpha    d  tetha</t>
+  </si>
+  <si>
+    <t>1  36    -90    0      0</t>
+  </si>
+  <si>
+    <t>2   0    -90   60     90</t>
+  </si>
+  <si>
+    <t>3  25    -90  290    180</t>
+  </si>
+  <si>
+    <t>4 -25    -90    0    180</t>
+  </si>
+  <si>
+    <t>5   0      0  365    0</t>
   </si>
 </sst>
 </file>
@@ -136,11 +154,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,16 +473,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -475,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -494,14 +512,14 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -509,33 +527,33 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -549,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -570,19 +588,54 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="44.25" customHeight="1">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="105">
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
